--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProjectEventSystem_v2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9378962-B053-447C-8A40-275C16F78954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E433F5C-406C-4193-AB5F-3832086C7E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" tabRatio="820" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="820" firstSheet="1" activeTab="2" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="211">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>TMSTMENU</t>
-  </si>
-  <si>
-    <t>TMSTMENU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TAUTPERMISSIONGROUP</t>
-  </si>
-  <si>
     <t>pgroupid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,19 +487,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TAUTGROUPMENU</t>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TAUTUSERPERMISSION</t>
-  </si>
-  <si>
-    <t>TBUSPROJECT</t>
-  </si>
-  <si>
     <t>业务部分</t>
   </si>
   <si>
@@ -624,9 +609,6 @@
     <t>状态位，0正常，1停用</t>
   </si>
   <si>
-    <t>TBUSEVENT</t>
-  </si>
-  <si>
     <t>项目目标说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,9 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBUSPRJEVENT</t>
-  </si>
-  <si>
     <t>项目id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,9 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBUSPRJMEMBER</t>
-  </si>
-  <si>
     <t>PK，项目id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,6 +722,152 @@
   </si>
   <si>
     <t>部门表在业务中没有实际应用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ta.col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb.col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUTGROUPMENU.pgroupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUTGROUPMENU.menuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUTPERMISSIONGROUP.pgroupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation(Ta:Tb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限组菜单关联关系中，一个权限组id对应多个权限组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMSTMENU.menuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限组菜单关联关系中，一个权限组可以有多个菜单id被关联进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUTUSERPERMISSION.empid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMSTUSER.empid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限关联关系中，一个用户可以有多组权限组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUTUSERPERMISSION.pgroupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPROJECT.ownerid</t>
+  </si>
+  <si>
+    <t>TBUSPROJECT.sponsorid</t>
+  </si>
+  <si>
+    <t>项目表中owner为公司人员，一个人员可以是多个项目的owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目表中sponsor为公司人员，一个人员可以是多个项目的sponsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSEVENT.reporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件表中report为公司人员，一个人员可以汇报多次项目事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPRJEVENT.prjid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPROJECT.prjid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目与事件的关联关系中，一个项目可以对应多次事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPRJEVENT.eventid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPRJMEMBER.prjid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBUSPRJMEMBER.empid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目关联用户关系中，一个项目可以关联多位用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表设计说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表分为基础数据的主档表MST、授权相关的权限表AUT、业务相关的业务表BUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限使用链表设计，两张较为主要的表是权限组关联人员和权限组关联菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务使用链表设计，项目表关联事件表，项目表关联参与人员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号，用于记录人员的手机，便于进行微信或其他服务的统一登陆功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ticket，用于微信换取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,22 +1268,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C94F757-C681-4445-BD1E-9A20E277268C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1183,13 +1305,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1197,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1211,122 +1333,122 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1339,29 +1461,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66EAD3-5661-4A32-8504-975CF94B532D}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1370,132 +1490,132 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1503,153 +1623,153 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
       <c r="G13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1657,7 +1777,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1665,9 +1785,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1676,7 +1796,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1684,103 +1804,103 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPROJECT (</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" ref="A26:A39" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>prjcode varchar2(20) NOT NULL ,</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>prjname varchar2(50) NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>cstid number ,</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ownerid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>sponsorid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(2000) ,</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>goal varchar2(1000) ,</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>approvetime date default sysdate ,</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>expectedtime date ,</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>");"</f>
         <v>);</v>
@@ -1796,30 +1916,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96829F3A-DD9A-45E4-B6A0-8A0F2F5EDB37}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1828,182 +1946,182 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
       <c r="G7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2011,72 +2129,72 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSEVENT (</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>reporter number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>reportertime date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>B12&amp;" "&amp;C12&amp;IF(E12="not null"," NOT NULL","")&amp;IF(F12="",""," default "&amp;F12)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;"),"</f>
         <v>PRIMARY KEY (eventid),</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2092,25 +2210,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D2748-ABEF-4AB1-B723-B3FF73D6D441}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2119,213 +2235,213 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2333,78 +2449,78 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJEVENT (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A29" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>leafid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>depth number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>parentid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2420,30 +2536,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B19AF1C-C73E-49E1-8642-644C43AB355B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2452,224 +2566,224 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJMEMBER (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" ref="A17:A23" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (prjid ,empid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2683,14 +2797,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94326767-D9A5-4012-88D0-4A8C8B00FBE6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2700,370 +3058,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11229516-9F53-41D5-B3C5-685E6451A681}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTCOMP (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>compid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>compcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>B7&amp;" "&amp;C7&amp;IF(D7="Y"," PRIMARY KEY","")&amp;IF(E7="not null"," NOT NULL","")&amp;IF(F7="",""," default "&amp;F7)&amp;" ,"</f>
         <v>compname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>B8&amp;" "&amp;C8&amp;IF(D8="Y"," PRIMARY KEY","")&amp;IF(E8="not null"," NOT NULL","")&amp;IF(F8="",""," default "&amp;F8)&amp;" ,"</f>
         <v>compadd varchar2(30) ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>B9&amp;" "&amp;C9&amp;IF(D9="Y"," PRIMARY KEY","")&amp;IF(E9="not null"," NOT NULL","")&amp;IF(F9="",""," default "&amp;F9)&amp;" ,"</f>
         <v>uscicode varchar2(20) ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A28" si="0">B10&amp;" "&amp;C10&amp;IF(D10="Y"," PRIMARY KEY","")&amp;IF(E10="not null"," NOT NULL","")&amp;IF(F10="",""," default "&amp;F10)&amp;" ,"</f>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30" si="1">");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>"comment on table "&amp;A1&amp;" is "&amp;"'"&amp;A2&amp;"';"</f>
         <v>comment on table TMSTCOMP is '公司表';</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B5&amp;" is "&amp;"'"&amp;G5&amp;"';"</f>
         <v>comment on column TMSTCOMP.compid is 'PK，公司内码';</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B6&amp;" is "&amp;"'"&amp;G6&amp;"';"</f>
         <v>comment on column TMSTCOMP.compcode is '公司编码';</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B7&amp;" is "&amp;"'"&amp;G7&amp;"';"</f>
         <v>comment on column TMSTCOMP.compname is '公司名';</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B8&amp;" is "&amp;"'"&amp;G8&amp;"';"</f>
         <v>comment on column TMSTCOMP.compadd is '公司注册地址';</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B9&amp;" is "&amp;"'"&amp;G9&amp;"';"</f>
         <v>comment on column TMSTCOMP.uscicode is '统一社会信用代码';</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B10&amp;" is "&amp;"'"&amp;G10&amp;"';"</f>
         <v>comment on column TMSTCOMP.createuser is '创建人内码';</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B11&amp;" is "&amp;"'"&amp;G11&amp;"';"</f>
         <v>comment on column TMSTCOMP.createdate is '创建时间';</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B12&amp;" is "&amp;"'"&amp;G12&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifyuser is '修改人内码';</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B13&amp;" is "&amp;"'"&amp;G13&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifydate is '修改时间';</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B14&amp;" is "&amp;"'"&amp;G14&amp;"';"</f>
         <v>comment on column TMSTCOMP.status is '状态位，0正常，1停用';</v>
@@ -3083,273 +3441,273 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTDEPT (</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>deptid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A27" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>deptcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>deptname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>deptlocation varchar2(30) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3363,330 +3721,358 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+      <c r="G17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTUSER (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f t="shared" ref="A20:A30" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>empcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>B7&amp;" "&amp;C7&amp;IF(D7="Y"," PRIMARY KEY","")&amp;IF(E7="not null"," NOT NULL","")&amp;IF(F7="",""," default "&amp;F7)&amp;" ,"</f>
         <v>empname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>B8&amp;" "&amp;C8&amp;IF(D8="Y"," PRIMARY KEY","")&amp;IF(E8="not null"," NOT NULL","")&amp;IF(F8="",""," default "&amp;F8)&amp;" ,"</f>
         <v>passwd varchar2(30) NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>B9&amp;" "&amp;C9&amp;IF(D9="Y"," PRIMARY KEY","")&amp;IF(E9="not null"," NOT NULL","")&amp;IF(F9="",""," default "&amp;F9)&amp;" ,"</f>
         <v>sex number NOT NULL default 1 ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" ref="A27:A32" si="0">B12&amp;" "&amp;C12&amp;IF(D12="Y"," PRIMARY KEY","")&amp;IF(E12="not null"," NOT NULL","")&amp;IF(F12="",""," default "&amp;F12)&amp;" ,"</f>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>admin number NOT NULL default 1 ,</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
@@ -3703,313 +4089,313 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
         <v>88</v>
       </c>
-      <c r="G5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTMENU (</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>menuid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" ref="A22:A29" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>menucode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>mununame varchar2(30) NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>subject varchar2(5) NOT NULL default MST ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>level number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>sortid number ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>B15&amp;" "&amp;C15&amp;IF(D15="Y"," PRIMARY KEY","")&amp;IF(E15="not null"," NOT NULL","")&amp;IF(F15="",""," default "&amp;F15)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4026,109 +4412,109 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4136,163 +4522,163 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTPERMISSIONGROUP (</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A27" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>pgroupid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>pgroupcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>pgroupname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(50) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4309,237 +4695,237 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTGROUPMENU (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>menuid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (pgroupid ,menuid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4556,239 +4942,239 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTUSERPERMISSION (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A22" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (empid ,pgroupid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>

--- a/doc/表设计.xlsx
+++ b/doc/表设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProEveSys_verAIGC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProEveSys_verAIGC/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E433F5C-406C-4193-AB5F-3832086C7E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E8B85-A75A-1F4A-A3D9-FEAFCE3E2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="820" firstSheet="1" activeTab="2" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" tabRatio="820" firstSheet="1" activeTab="4" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="2" r:id="rId1"/>
@@ -859,15 +859,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信ticket，用于微信换取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,18 +1272,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1463,23 +1463,23 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1777,7 +1777,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1785,7 +1785,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1804,103 +1804,103 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPROJECT (</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f t="shared" ref="A26:A39" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>prjcode varchar2(20) NOT NULL ,</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>prjname varchar2(50) NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>cstid number ,</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ownerid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>sponsorid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(2000) ,</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>goal varchar2(1000) ,</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>approvetime date default sysdate ,</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>expectedtime date ,</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <f>");"</f>
         <v>);</v>
@@ -1918,24 +1918,24 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2129,72 +2129,72 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSEVENT (</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>reporter number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>reportertime date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>B12&amp;" "&amp;C12&amp;IF(E12="not null"," NOT NULL","")&amp;IF(F12="",""," default "&amp;F12)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;"),"</f>
         <v>PRIMARY KEY (eventid),</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2212,19 +2212,19 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2449,78 +2449,78 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJEVENT (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A29" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>leafid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>depth number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>parentid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2538,24 +2538,24 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2724,66 +2724,66 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJMEMBER (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f t="shared" ref="A17:A23" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (prjid ,empid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2803,19 +2803,19 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3019,12 +3019,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3058,33 +3058,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11229516-9F53-41D5-B3C5-685E6451A681}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3274,154 +3274,154 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTCOMP (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>compid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f>B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>compcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f>B7&amp;" "&amp;C7&amp;IF(D7="Y"," PRIMARY KEY","")&amp;IF(E7="not null"," NOT NULL","")&amp;IF(F7="",""," default "&amp;F7)&amp;" ,"</f>
         <v>compname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f>B8&amp;" "&amp;C8&amp;IF(D8="Y"," PRIMARY KEY","")&amp;IF(E8="not null"," NOT NULL","")&amp;IF(F8="",""," default "&amp;F8)&amp;" ,"</f>
         <v>compadd varchar2(30) ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>B9&amp;" "&amp;C9&amp;IF(D9="Y"," PRIMARY KEY","")&amp;IF(E9="not null"," NOT NULL","")&amp;IF(F9="",""," default "&amp;F9)&amp;" ,"</f>
         <v>uscicode varchar2(20) ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A28" si="0">B10&amp;" "&amp;C10&amp;IF(D10="Y"," PRIMARY KEY","")&amp;IF(E10="not null"," NOT NULL","")&amp;IF(F10="",""," default "&amp;F10)&amp;" ,"</f>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f t="shared" ref="A30" si="1">");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <f>"comment on table "&amp;A1&amp;" is "&amp;"'"&amp;A2&amp;"';"</f>
         <v>comment on table TMSTCOMP is '公司表';</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B5&amp;" is "&amp;"'"&amp;G5&amp;"';"</f>
         <v>comment on column TMSTCOMP.compid is 'PK，公司内码';</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B6&amp;" is "&amp;"'"&amp;G6&amp;"';"</f>
         <v>comment on column TMSTCOMP.compcode is '公司编码';</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B7&amp;" is "&amp;"'"&amp;G7&amp;"';"</f>
         <v>comment on column TMSTCOMP.compname is '公司名';</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B8&amp;" is "&amp;"'"&amp;G8&amp;"';"</f>
         <v>comment on column TMSTCOMP.compadd is '公司注册地址';</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B9&amp;" is "&amp;"'"&amp;G9&amp;"';"</f>
         <v>comment on column TMSTCOMP.uscicode is '统一社会信用代码';</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B10&amp;" is "&amp;"'"&amp;G10&amp;"';"</f>
         <v>comment on column TMSTCOMP.createuser is '创建人内码';</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B11&amp;" is "&amp;"'"&amp;G11&amp;"';"</f>
         <v>comment on column TMSTCOMP.createdate is '创建时间';</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B12&amp;" is "&amp;"'"&amp;G12&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifyuser is '修改人内码';</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B13&amp;" is "&amp;"'"&amp;G13&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifydate is '修改时间';</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B14&amp;" is "&amp;"'"&amp;G14&amp;"';"</f>
         <v>comment on column TMSTCOMP.status is '状态位，0正常，1停用';</v>
@@ -3441,14 +3441,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3456,17 +3456,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3642,72 +3642,72 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTDEPT (</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>deptid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A27" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>deptcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>deptname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>deptlocation varchar2(30) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3723,31 +3723,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3807,7 +3809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3824,7 +3826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3875,21 +3877,21 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
         <v>208</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>209</v>
       </c>
-      <c r="G11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3906,7 +3908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3994,84 +3996,84 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTUSER (</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f>B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>empcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f>B7&amp;" "&amp;C7&amp;IF(D7="Y"," PRIMARY KEY","")&amp;IF(E7="not null"," NOT NULL","")&amp;IF(F7="",""," default "&amp;F7)&amp;" ,"</f>
         <v>empname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f>B8&amp;" "&amp;C8&amp;IF(D8="Y"," PRIMARY KEY","")&amp;IF(E8="not null"," NOT NULL","")&amp;IF(F8="",""," default "&amp;F8)&amp;" ,"</f>
         <v>passwd varchar2(30) NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f>B9&amp;" "&amp;C9&amp;IF(D9="Y"," PRIMARY KEY","")&amp;IF(E9="not null"," NOT NULL","")&amp;IF(F9="",""," default "&amp;F9)&amp;" ,"</f>
         <v>sex number NOT NULL default 1 ,</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f t="shared" ref="A27:A32" si="0">B12&amp;" "&amp;C12&amp;IF(D12="Y"," PRIMARY KEY","")&amp;IF(E12="not null"," NOT NULL","")&amp;IF(F12="",""," default "&amp;F12)&amp;" ,"</f>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>admin number NOT NULL default 1 ,</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4089,29 +4091,29 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -4318,84 +4320,84 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTMENU (</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>menuid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" ref="A22:A29" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>menucode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>mununame varchar2(30) NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>subject varchar2(5) NOT NULL default MST ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>level number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>sortid number ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="str">
         <f>B15&amp;" "&amp;C15&amp;IF(D15="Y"," PRIMARY KEY","")&amp;IF(E15="not null"," NOT NULL","")&amp;IF(F15="",""," default "&amp;F15)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4415,29 +4417,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4613,72 +4615,72 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTPERMISSIONGROUP (</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A27" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>pgroupid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>pgroupcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>pgroupname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(50) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4698,27 +4700,27 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4866,66 +4868,66 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTGROUPMENU (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>menuid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (pgroupid ,menuid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4945,29 +4947,29 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5115,66 +5117,66 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTUSERPERMISSION (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A22" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (empid ,pgroupid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
